--- a/bootscan/breakpoints_bat.xlsx
+++ b/bootscan/breakpoints_bat.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gwenddolenkettenburg/Desktop/developer/mada-bat-picornavirus/bootscan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C3363D6-C4D2-8B42-8D88-506AB4AB13F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54BB5AD8-2E7B-584C-B1ED-533A39A3F0AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30160" yWindow="-740" windowWidth="17820" windowHeight="17980" xr2:uid="{C3638C98-5801-2940-A9B6-E7CEAAFF9F9E}"/>
+    <workbookView xWindow="7680" yWindow="1580" windowWidth="17820" windowHeight="17980" xr2:uid="{C3638C98-5801-2940-A9B6-E7CEAAFF9F9E}"/>
   </bookViews>
   <sheets>
     <sheet name="breakpoints" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="17">
   <si>
     <t>virus</t>
   </si>
@@ -60,13 +60,40 @@
   </si>
   <si>
     <t>Felisavirus</t>
+  </si>
+  <si>
+    <t>polyprotein</t>
+  </si>
+  <si>
+    <t>VP3</t>
+  </si>
+  <si>
+    <t>VP1</t>
+  </si>
+  <si>
+    <t>2B</t>
+  </si>
+  <si>
+    <t>3A/3B</t>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>VP2</t>
+  </si>
+  <si>
+    <t>2C</t>
+  </si>
+  <si>
+    <t>3B</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -84,6 +111,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -428,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEB6AF8-CB91-F047-BA3B-585AC5530B40}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
@@ -437,7 +470,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -447,10 +480,10 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" t="s">
@@ -467,7 +500,9 @@
       <c r="C2" s="1">
         <v>17</v>
       </c>
-      <c r="D2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -479,6 +514,9 @@
       <c r="C3" s="2">
         <v>50</v>
       </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -490,6 +528,9 @@
       <c r="C4" s="1">
         <v>25</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -501,7 +542,9 @@
       <c r="C5" s="1">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -513,7 +556,9 @@
       <c r="C6" s="1">
         <v>13</v>
       </c>
-      <c r="D6" s="2"/>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -525,7 +570,9 @@
       <c r="C7" s="1">
         <v>23</v>
       </c>
-      <c r="D7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -537,7 +584,9 @@
       <c r="C8" s="1">
         <v>24</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -549,7 +598,9 @@
       <c r="C9" s="2">
         <v>41</v>
       </c>
-      <c r="D9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
@@ -561,7 +612,9 @@
       <c r="C10" s="2">
         <v>41</v>
       </c>
-      <c r="D10" s="2"/>
+      <c r="D10" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
@@ -573,7 +626,9 @@
       <c r="C11" s="1">
         <v>27</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
@@ -585,7 +640,9 @@
       <c r="C12" s="2">
         <v>70</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -597,7 +654,9 @@
       <c r="C13" s="2">
         <v>48</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
@@ -609,7 +668,9 @@
       <c r="C14" s="2">
         <v>47</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -621,7 +682,9 @@
       <c r="C15" s="2">
         <v>38</v>
       </c>
-      <c r="D15" s="2"/>
+      <c r="D15" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
@@ -633,7 +696,9 @@
       <c r="C16" s="2">
         <v>31</v>
       </c>
-      <c r="D16" s="2"/>
+      <c r="D16" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
@@ -645,7 +710,9 @@
       <c r="C17" s="1">
         <v>14</v>
       </c>
-      <c r="D17" s="2"/>
+      <c r="D17" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
@@ -657,7 +724,9 @@
       <c r="C18" s="1">
         <v>23</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
@@ -669,7 +738,9 @@
       <c r="C19" s="2">
         <v>40</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
@@ -681,7 +752,9 @@
       <c r="C20" s="2">
         <v>43</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
@@ -693,7 +766,9 @@
       <c r="C21" s="2">
         <v>30</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
@@ -705,7 +780,9 @@
       <c r="C22" s="2">
         <v>47</v>
       </c>
-      <c r="D22" s="2"/>
+      <c r="D22" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
@@ -717,21 +794,12 @@
       <c r="C23" s="1">
         <v>27</v>
       </c>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="D27" s="2"/>
+      <c r="D23" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>